--- a/data/trans_orig/P24C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F31C5FB-ADE2-4715-AEDD-DE05A56C2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D07DFD7-8AD5-492D-AB79-9FFB9222E838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{94C60790-EEDE-4D7A-B1F9-BA75B56E3594}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47D21926-B45B-44A9-A756-67AA667CFB51}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="689">
   <si>
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2007 (Tasa respuesta: 33,65%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>50,87%</t>
   </si>
   <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
   </si>
   <si>
     <t>52,66%</t>
   </si>
   <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
   </si>
   <si>
     <t>51,57%</t>
   </si>
   <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>28,61%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
   </si>
   <si>
     <t>38,57%</t>
   </si>
   <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
   </si>
   <si>
     <t>32,49%</t>
   </si>
   <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -136,1936 +136,1942 @@
     <t>20,52%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
     <t>11,18%</t>
   </si>
   <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
     <t>22,91%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
   </si>
   <si>
     <t>50,17%</t>
   </si>
   <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2015 (Tasa respuesta: 29,73%)</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>11,35%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
   </si>
   <si>
     <t>29,49%</t>
   </si>
   <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
   </si>
   <si>
     <t>43,45%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2015 (Tasa respuesta: 29,73%)</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
   </si>
   <si>
     <t>50,44%</t>
@@ -2510,7 +2516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42EA282-343A-411E-89BC-F7DD391E2FF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7D1854-CA38-410F-B9DD-9653982AA64B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2942,13 +2948,13 @@
         <v>48271</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -2957,13 +2963,13 @@
         <v>31431</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -2972,13 +2978,13 @@
         <v>79702</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,7 +3040,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3046,13 +3052,13 @@
         <v>99443</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>69</v>
@@ -3061,13 +3067,13 @@
         <v>68814</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>167</v>
@@ -3076,13 +3082,13 @@
         <v>168257</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3103,13 @@
         <v>38531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3112,13 +3118,13 @@
         <v>20077</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -3127,13 +3133,13 @@
         <v>58608</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3154,13 @@
         <v>9865</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3163,13 +3169,13 @@
         <v>5998</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3178,13 +3184,13 @@
         <v>15862</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,7 +3246,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3249,16 +3255,16 @@
         <v>108</v>
       </c>
       <c r="D16" s="7">
-        <v>107593</v>
+        <v>107594</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -3267,13 +3273,13 @@
         <v>58861</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
@@ -3282,13 +3288,13 @@
         <v>166455</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3309,13 @@
         <v>34924</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -3318,13 +3324,13 @@
         <v>28032</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -3333,13 +3339,13 @@
         <v>62956</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3360,13 @@
         <v>27970</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3369,13 +3375,13 @@
         <v>18326</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -3384,13 +3390,13 @@
         <v>46296</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,7 +3408,7 @@
         <v>170</v>
       </c>
       <c r="D19" s="7">
-        <v>170487</v>
+        <v>170488</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3446,7 +3452,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3458,13 +3464,13 @@
         <v>15007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3473,10 +3479,10 @@
         <v>8674</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>130</v>
@@ -3721,7 +3727,7 @@
         <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -3730,13 +3736,13 @@
         <v>12021</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -3745,13 +3751,13 @@
         <v>37821</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3772,13 @@
         <v>11822</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -3781,13 +3787,13 @@
         <v>11893</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -3796,13 +3802,13 @@
         <v>23715</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,7 +3864,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3870,13 +3876,13 @@
         <v>106002</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -3885,13 +3891,13 @@
         <v>66783</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>174</v>
@@ -3900,13 +3906,13 @@
         <v>172785</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,13 +3927,13 @@
         <v>77679</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -3936,13 +3942,13 @@
         <v>57068</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>129</v>
@@ -3951,13 +3957,13 @@
         <v>134748</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3978,13 @@
         <v>51294</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>36</v>
@@ -3987,13 +3993,13 @@
         <v>37502</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>85</v>
@@ -4002,13 +4008,13 @@
         <v>88796</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,7 +4070,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4076,13 +4082,13 @@
         <v>37090</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -4091,13 +4097,13 @@
         <v>19005</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -4106,13 +4112,13 @@
         <v>56094</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4133,13 @@
         <v>193976</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H33" s="7">
         <v>119</v>
@@ -4142,13 +4148,13 @@
         <v>122946</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M33" s="7">
         <v>306</v>
@@ -4157,13 +4163,13 @@
         <v>316922</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4184,13 @@
         <v>84520</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>42</v>
@@ -4193,13 +4199,13 @@
         <v>44417</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>124</v>
@@ -4208,13 +4214,13 @@
         <v>128938</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4288,13 @@
         <v>599880</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H36" s="7">
         <v>345</v>
@@ -4297,13 +4303,13 @@
         <v>348212</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M36" s="7">
         <v>940</v>
@@ -4312,13 +4318,13 @@
         <v>948092</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4339,13 @@
         <v>511219</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>337</v>
@@ -4348,13 +4354,13 @@
         <v>346931</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>827</v>
@@ -4363,13 +4369,13 @@
         <v>858150</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4390,13 @@
         <v>272291</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H38" s="7">
         <v>162</v>
@@ -4399,13 +4405,13 @@
         <v>167159</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M38" s="7">
         <v>424</v>
@@ -4414,13 +4420,13 @@
         <v>439450</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4482,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4500,7 +4506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09360B0-BA67-449F-86F1-A58269880D55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91585EF7-F336-45AE-AA93-9495110A4F4D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4517,7 +4523,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4622,39 +4628,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,39 +4673,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,39 +4718,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,39 +4763,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4812,13 @@
         <v>23899</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4821,13 +4827,13 @@
         <v>21209</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -4836,13 +4842,13 @@
         <v>45108</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4863,13 @@
         <v>81000</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -4872,13 +4878,13 @@
         <v>61940</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>133</v>
@@ -4887,13 +4893,13 @@
         <v>142941</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4914,13 @@
         <v>101195</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4923,13 +4929,13 @@
         <v>68069</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>150</v>
@@ -4938,13 +4944,13 @@
         <v>169264</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,7 +5006,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5012,13 +5018,13 @@
         <v>35561</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>290</v>
+        <v>112</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5027,13 +5033,13 @@
         <v>8080</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -5042,13 +5048,13 @@
         <v>43641</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5069,13 @@
         <v>55297</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5078,13 +5084,13 @@
         <v>51961</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -5093,13 +5099,13 @@
         <v>107258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5120,13 @@
         <v>36179</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -5129,13 +5135,13 @@
         <v>26438</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -5144,13 +5150,13 @@
         <v>62617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,7 +5212,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5353,10 +5359,10 @@
         <v>339</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>238</v>
+        <v>340</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,7 +5418,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5424,13 +5430,13 @@
         <v>9132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5439,13 +5445,13 @@
         <v>5013</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -5454,13 +5460,13 @@
         <v>14146</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5481,13 @@
         <v>47335</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -5490,13 +5496,13 @@
         <v>39235</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M21" s="7">
         <v>84</v>
@@ -5505,13 +5511,13 @@
         <v>86570</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5532,13 @@
         <v>33900</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>359</v>
+        <v>201</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -5541,13 +5547,13 @@
         <v>21191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -5556,13 +5562,13 @@
         <v>55091</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5636,13 @@
         <v>16550</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5645,13 +5651,13 @@
         <v>5605</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -5660,13 +5666,13 @@
         <v>22154</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>265</v>
+        <v>374</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5687,13 @@
         <v>37995</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -5696,13 +5702,13 @@
         <v>41349</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -5711,13 +5717,13 @@
         <v>79344</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5738,13 @@
         <v>29195</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -5747,13 +5753,13 @@
         <v>19926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>47</v>
@@ -5762,13 +5768,13 @@
         <v>49121</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>286</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,7 +5830,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5836,13 +5842,13 @@
         <v>59399</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>253</v>
+        <v>395</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -5851,13 +5857,13 @@
         <v>35636</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>394</v>
+        <v>123</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M28" s="7">
         <v>90</v>
@@ -5866,13 +5872,13 @@
         <v>95036</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5893,13 @@
         <v>137003</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>400</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H29" s="7">
         <v>88</v>
@@ -5902,13 +5908,13 @@
         <v>96388</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M29" s="7">
         <v>218</v>
@@ -5917,13 +5923,13 @@
         <v>233391</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +5944,13 @@
         <v>83791</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>410</v>
+        <v>59</v>
       </c>
       <c r="H30" s="7">
         <v>57</v>
@@ -5953,13 +5959,13 @@
         <v>62525</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M30" s="7">
         <v>133</v>
@@ -5968,7 +5974,7 @@
         <v>146317</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>414</v>
+        <v>148</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>415</v>
@@ -6030,7 +6036,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6048,7 +6054,7 @@
         <v>418</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>345</v>
+        <v>143</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -6078,7 +6084,7 @@
         <v>423</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>199</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,7 +6120,7 @@
         <v>428</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>429</v>
+        <v>134</v>
       </c>
       <c r="M33" s="7">
         <v>260</v>
@@ -6123,13 +6129,13 @@
         <v>280439</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6150,13 @@
         <v>91412</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -6159,13 +6165,13 @@
         <v>61268</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M34" s="7">
         <v>137</v>
@@ -6174,13 +6180,13 @@
         <v>152679</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,13 +6254,13 @@
         <v>235777</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>315</v>
+        <v>421</v>
       </c>
       <c r="H36" s="7">
         <v>128</v>
@@ -6263,13 +6269,13 @@
         <v>138279</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M36" s="7">
         <v>353</v>
@@ -6278,13 +6284,13 @@
         <v>374056</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6305,13 @@
         <v>624540</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>451</v>
+        <v>235</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>452</v>
+        <v>282</v>
       </c>
       <c r="H37" s="7">
         <v>441</v>
@@ -6314,13 +6320,13 @@
         <v>475773</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M37" s="7">
         <v>1032</v>
@@ -6329,13 +6335,13 @@
         <v>1100313</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6356,13 @@
         <v>484949</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H38" s="7">
         <v>327</v>
@@ -6365,13 +6371,13 @@
         <v>360295</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M38" s="7">
         <v>772</v>
@@ -6380,13 +6386,13 @@
         <v>845243</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,7 +6448,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -6466,7 +6472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7C8C1D-03C6-43CA-88B9-CBC8BE68FEDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC6119B-9B1A-43E1-BB7E-321D1D3EB603}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6483,7 +6489,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6590,13 +6596,13 @@
         <v>22209</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6605,13 +6611,13 @@
         <v>8108</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6620,13 +6626,13 @@
         <v>30317</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6647,13 @@
         <v>32875</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>478</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -6656,13 +6662,13 @@
         <v>17421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -6671,13 +6677,13 @@
         <v>50297</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,13 +6698,13 @@
         <v>49406</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H6" s="7">
         <v>47</v>
@@ -6707,13 +6713,13 @@
         <v>48185</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M6" s="7">
         <v>92</v>
@@ -6722,13 +6728,13 @@
         <v>97590</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6802,13 @@
         <v>11140</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6811,13 +6817,13 @@
         <v>7035</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -6826,13 +6832,13 @@
         <v>18175</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6853,13 @@
         <v>151641</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>102</v>
+        <v>501</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -6862,13 +6868,13 @@
         <v>91582</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M9" s="7">
         <v>229</v>
@@ -6877,13 +6883,13 @@
         <v>243223</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,13 +6904,13 @@
         <v>45243</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -6913,13 +6919,13 @@
         <v>41152</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -6928,13 +6934,13 @@
         <v>86395</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,7 +6996,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7002,13 +7008,13 @@
         <v>3066</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -7017,13 +7023,13 @@
         <v>3834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>525</v>
+        <v>96</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -7032,13 +7038,13 @@
         <v>6900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7059,13 @@
         <v>48782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -7068,13 +7074,13 @@
         <v>39010</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -7083,13 +7089,13 @@
         <v>87791</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,13 +7110,13 @@
         <v>44484</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -7119,13 +7125,13 @@
         <v>38559</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -7134,13 +7140,13 @@
         <v>83043</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,7 +7202,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7208,13 +7214,13 @@
         <v>29046</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>542</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -7223,13 +7229,13 @@
         <v>10151</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -7238,13 +7244,13 @@
         <v>39197</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7259,13 +7265,13 @@
         <v>51504</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -7274,13 +7280,13 @@
         <v>45104</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>551</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -7289,13 +7295,13 @@
         <v>96608</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7316,13 @@
         <v>58737</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -7325,13 +7331,13 @@
         <v>51556</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -7340,10 +7346,10 @@
         <v>110292</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>565</v>
@@ -7402,7 +7408,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7641,7 +7647,7 @@
         <v>593</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>594</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -7650,13 +7656,13 @@
         <v>21305</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7677,13 @@
         <v>51087</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>600</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -7686,13 +7692,13 @@
         <v>56821</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -7701,13 +7707,13 @@
         <v>107907</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,13 +7728,13 @@
         <v>21512</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -7737,13 +7743,13 @@
         <v>9545</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -7752,13 +7758,13 @@
         <v>31057</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,7 +7820,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7826,13 +7832,13 @@
         <v>77941</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>617</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>618</v>
+        <v>335</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -7841,13 +7847,13 @@
         <v>61154</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="M28" s="7">
         <v>127</v>
@@ -7856,13 +7862,13 @@
         <v>139095</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,13 +7883,13 @@
         <v>42380</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -7892,13 +7898,13 @@
         <v>43988</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>630</v>
       </c>
       <c r="M29" s="7">
         <v>78</v>
@@ -7907,13 +7913,13 @@
         <v>86368</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7928,13 +7934,13 @@
         <v>76408</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -7943,13 +7949,13 @@
         <v>67198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>638</v>
+        <v>229</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M30" s="7">
         <v>129</v>
@@ -7958,13 +7964,13 @@
         <v>143605</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>187</v>
+        <v>637</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,7 +8026,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8032,13 +8038,13 @@
         <v>17697</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H32" s="7">
         <v>27</v>
@@ -8047,10 +8053,10 @@
         <v>27330</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>265</v>
+        <v>643</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>644</v>
@@ -8155,7 +8161,7 @@
         <v>660</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M34" s="7">
         <v>146</v>
@@ -8167,10 +8173,10 @@
         <v>661</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>196</v>
+        <v>662</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,13 +8244,13 @@
         <v>176731</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H36" s="7">
         <v>123</v>
@@ -8253,13 +8259,13 @@
         <v>123284</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M36" s="7">
         <v>281</v>
@@ -8268,13 +8274,13 @@
         <v>300016</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,13 +8295,13 @@
         <v>569906</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H37" s="7">
         <v>414</v>
@@ -8304,13 +8310,13 @@
         <v>425171</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>677</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M37" s="7">
         <v>949</v>
@@ -8319,13 +8325,13 @@
         <v>995078</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,13 +8346,13 @@
         <v>416570</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H38" s="7">
         <v>335</v>
@@ -8355,13 +8361,13 @@
         <v>352039</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="M38" s="7">
         <v>723</v>
@@ -8370,13 +8376,13 @@
         <v>768610</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8432,7 +8438,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D07DFD7-8AD5-492D-AB79-9FFB9222E838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ECD7393-97B7-45F1-A181-542E9DB5324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47D21926-B45B-44A9-A756-67AA667CFB51}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D41679F-40E7-499F-94EF-4FFEFE21FD3E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="695">
   <si>
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2007 (Tasa respuesta: 33,65%)</t>
   </si>
@@ -76,2035 +76,2053 @@
     <t>50,87%</t>
   </si>
   <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
   </si>
   <si>
     <t>52,66%</t>
   </si>
   <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
     <t>39,09%</t>
   </si>
   <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2015 (Tasa respuesta: 29,73%)</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
     <t>35,99%</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
+    <t>42,61%</t>
   </si>
   <si>
     <t>37,24%</t>
   </si>
   <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7D1854-CA38-410F-B9DD-9653982AA64B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69682AF6-231F-4EE4-A8AA-E99FB1710959}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3255,7 +3273,7 @@
         <v>108</v>
       </c>
       <c r="D16" s="7">
-        <v>107594</v>
+        <v>107593</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -3408,7 +3426,7 @@
         <v>170</v>
       </c>
       <c r="D19" s="7">
-        <v>170488</v>
+        <v>170487</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3482,10 +3500,10 @@
         <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -3494,13 +3512,13 @@
         <v>23681</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3533,13 @@
         <v>54039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>38</v>
@@ -3530,13 +3548,13 @@
         <v>39594</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>92</v>
@@ -3545,13 +3563,13 @@
         <v>93633</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,10 +3584,10 @@
         <v>15283</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>145</v>
@@ -3933,7 +3951,7 @@
         <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -3942,13 +3960,13 @@
         <v>57068</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>129</v>
@@ -3957,13 +3975,13 @@
         <v>134748</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3996,13 @@
         <v>51294</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>36</v>
@@ -3993,13 +4011,13 @@
         <v>37502</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>85</v>
@@ -4008,13 +4026,13 @@
         <v>88796</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,7 +4088,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4082,13 +4100,13 @@
         <v>37090</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -4097,13 +4115,13 @@
         <v>19005</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -4112,13 +4130,13 @@
         <v>56094</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4151,13 @@
         <v>193976</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H33" s="7">
         <v>119</v>
@@ -4148,13 +4166,13 @@
         <v>122946</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M33" s="7">
         <v>306</v>
@@ -4163,13 +4181,13 @@
         <v>316922</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4202,13 @@
         <v>84520</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>42</v>
@@ -4199,10 +4217,10 @@
         <v>44417</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>231</v>
@@ -4339,13 +4357,13 @@
         <v>511219</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>337</v>
@@ -4354,13 +4372,13 @@
         <v>346931</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>827</v>
@@ -4369,13 +4387,13 @@
         <v>858150</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4408,13 @@
         <v>272291</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H38" s="7">
         <v>162</v>
@@ -4405,13 +4423,13 @@
         <v>167159</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M38" s="7">
         <v>424</v>
@@ -4420,13 +4438,13 @@
         <v>439450</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4500,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4506,7 +4524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91585EF7-F336-45AE-AA93-9495110A4F4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D67836-15E5-4E59-99C0-F6D1D30EBAD9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4523,7 +4541,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4628,39 +4646,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,39 +4691,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,39 +4736,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,39 +4781,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4830,13 @@
         <v>23899</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4827,13 +4845,13 @@
         <v>21209</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -4842,13 +4860,13 @@
         <v>45108</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4881,13 @@
         <v>81000</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -4878,13 +4896,13 @@
         <v>61940</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>133</v>
@@ -4893,13 +4911,13 @@
         <v>142941</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4932,13 @@
         <v>101195</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4929,13 +4947,13 @@
         <v>68069</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>150</v>
@@ -4944,13 +4962,13 @@
         <v>169264</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5036,13 @@
         <v>35561</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5048,13 +5066,13 @@
         <v>43641</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5087,13 @@
         <v>55297</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5084,10 +5102,10 @@
         <v>51961</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>303</v>
@@ -5156,7 +5174,7 @@
         <v>314</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,10 +5553,10 @@
         <v>360</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>201</v>
+        <v>361</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -5547,13 +5565,13 @@
         <v>21191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -5562,13 +5580,13 @@
         <v>55091</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5654,13 @@
         <v>16550</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5651,13 +5669,13 @@
         <v>5605</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -5666,13 +5684,13 @@
         <v>22154</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5705,13 @@
         <v>37995</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -5702,13 +5720,13 @@
         <v>41349</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -5717,13 +5735,13 @@
         <v>79344</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5756,13 @@
         <v>29195</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -5753,13 +5771,13 @@
         <v>19926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M26" s="7">
         <v>47</v>
@@ -5768,13 +5786,13 @@
         <v>49121</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5860,13 @@
         <v>59399</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -5857,13 +5875,13 @@
         <v>35636</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M28" s="7">
         <v>90</v>
@@ -5872,13 +5890,13 @@
         <v>95036</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5911,13 @@
         <v>137003</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>402</v>
+        <v>47</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>404</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H29" s="7">
         <v>88</v>
@@ -5908,13 +5926,13 @@
         <v>96388</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M29" s="7">
         <v>218</v>
@@ -5923,13 +5941,13 @@
         <v>233391</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +5962,13 @@
         <v>83791</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
       <c r="H30" s="7">
         <v>57</v>
@@ -5959,13 +5977,13 @@
         <v>62525</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M30" s="7">
         <v>133</v>
@@ -5974,13 +5992,13 @@
         <v>146317</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>148</v>
+        <v>418</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,7 +6054,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6048,13 +6066,13 @@
         <v>38337</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>143</v>
+        <v>423</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -6063,13 +6081,13 @@
         <v>27745</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M32" s="7">
         <v>61</v>
@@ -6078,13 +6096,13 @@
         <v>66082</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,13 +6117,13 @@
         <v>161584</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="H33" s="7">
         <v>108</v>
@@ -6114,13 +6132,13 @@
         <v>118854</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>134</v>
+        <v>435</v>
       </c>
       <c r="M33" s="7">
         <v>260</v>
@@ -6129,13 +6147,13 @@
         <v>280439</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6168,13 @@
         <v>91412</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -6165,13 +6183,13 @@
         <v>61268</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M34" s="7">
         <v>137</v>
@@ -6180,13 +6198,13 @@
         <v>152679</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,13 +6272,13 @@
         <v>235777</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="H36" s="7">
         <v>128</v>
@@ -6269,13 +6287,13 @@
         <v>138279</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M36" s="7">
         <v>353</v>
@@ -6284,13 +6302,13 @@
         <v>374056</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,13 +6323,13 @@
         <v>624540</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>282</v>
+        <v>458</v>
       </c>
       <c r="H37" s="7">
         <v>441</v>
@@ -6320,13 +6338,13 @@
         <v>475773</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M37" s="7">
         <v>1032</v>
@@ -6335,13 +6353,13 @@
         <v>1100313</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6374,13 @@
         <v>484949</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>456</v>
+        <v>250</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H38" s="7">
         <v>327</v>
@@ -6371,13 +6389,13 @@
         <v>360295</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="M38" s="7">
         <v>772</v>
@@ -6386,13 +6404,13 @@
         <v>845243</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,7 +6452,7 @@
         <v>2157</v>
       </c>
       <c r="N39" s="7">
-        <v>2319612</v>
+        <v>2319613</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -6448,7 +6466,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -6472,7 +6490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC6119B-9B1A-43E1-BB7E-321D1D3EB603}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B09885-44C8-48C5-A409-773387F1CA75}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6489,7 +6507,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6596,13 +6614,13 @@
         <v>22209</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6611,13 +6629,13 @@
         <v>8108</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>471</v>
+        <v>64</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6626,13 +6644,13 @@
         <v>30317</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6665,13 @@
         <v>32875</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -6662,13 +6680,13 @@
         <v>17421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>478</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -6677,13 +6695,13 @@
         <v>50297</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,13 +6716,13 @@
         <v>49406</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>483</v>
+        <v>309</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H6" s="7">
         <v>47</v>
@@ -6713,13 +6731,13 @@
         <v>48185</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="M6" s="7">
         <v>92</v>
@@ -6728,13 +6746,13 @@
         <v>97590</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6820,13 @@
         <v>11140</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6817,13 +6835,13 @@
         <v>7035</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -6832,13 +6850,13 @@
         <v>18175</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6871,13 @@
         <v>151641</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -6868,13 +6886,13 @@
         <v>91582</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="M9" s="7">
         <v>229</v>
@@ -6883,13 +6901,13 @@
         <v>243223</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,13 +6922,13 @@
         <v>45243</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -6919,13 +6937,13 @@
         <v>41152</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -6934,13 +6952,13 @@
         <v>86395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>515</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +7026,13 @@
         <v>3066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -7023,13 +7041,13 @@
         <v>3834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>96</v>
+        <v>527</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -7038,13 +7056,13 @@
         <v>6900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>346</v>
+        <v>529</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7077,13 @@
         <v>48782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -7074,13 +7092,13 @@
         <v>39010</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -7089,13 +7107,13 @@
         <v>87791</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7128,13 @@
         <v>44484</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -7125,13 +7143,13 @@
         <v>38559</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -7140,13 +7158,13 @@
         <v>83043</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,13 +7232,13 @@
         <v>29046</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -7229,13 +7247,13 @@
         <v>10151</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>546</v>
+        <v>423</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -7244,13 +7262,13 @@
         <v>39197</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>473</v>
+        <v>553</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7283,13 @@
         <v>51504</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -7280,13 +7298,13 @@
         <v>45104</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -7295,13 +7313,13 @@
         <v>96608</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7334,13 @@
         <v>58737</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -7331,13 +7349,13 @@
         <v>51556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -7346,13 +7364,13 @@
         <v>110292</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,13 +7438,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7435,13 +7453,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7450,13 +7468,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7489,13 @@
         <v>48542</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -7486,13 +7504,13 @@
         <v>24478</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="M21" s="7">
         <v>73</v>
@@ -7501,13 +7519,13 @@
         <v>73020</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7540,13 @@
         <v>30561</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>581</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -7537,13 +7555,13 @@
         <v>31322</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -7552,13 +7570,13 @@
         <v>61883</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,13 +7644,13 @@
         <v>15632</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>590</v>
+        <v>476</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7641,13 +7659,13 @@
         <v>5674</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>598</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -7656,13 +7674,13 @@
         <v>21305</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,13 +7695,13 @@
         <v>51087</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -7692,13 +7710,13 @@
         <v>56821</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -7707,13 +7725,13 @@
         <v>107907</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,13 +7746,13 @@
         <v>21512</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -7743,13 +7761,13 @@
         <v>9545</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>611</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -7758,13 +7776,13 @@
         <v>31057</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,13 +7850,13 @@
         <v>77941</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>335</v>
+        <v>621</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -7847,13 +7865,13 @@
         <v>61154</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>618</v>
+        <v>516</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="M28" s="7">
         <v>127</v>
@@ -7862,13 +7880,13 @@
         <v>139095</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>620</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,13 +7901,13 @@
         <v>42380</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -7898,13 +7916,13 @@
         <v>43988</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="M29" s="7">
         <v>78</v>
@@ -7913,13 +7931,13 @@
         <v>86368</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7934,13 +7952,13 @@
         <v>76408</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -7949,13 +7967,13 @@
         <v>67198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>229</v>
+        <v>639</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="M30" s="7">
         <v>129</v>
@@ -7964,13 +7982,13 @@
         <v>143605</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>638</v>
+        <v>467</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8026,7 +8044,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8038,13 +8056,13 @@
         <v>17697</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H32" s="7">
         <v>27</v>
@@ -8053,13 +8071,13 @@
         <v>27330</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>467</v>
+        <v>646</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="M32" s="7">
         <v>43</v>
@@ -8068,13 +8086,13 @@
         <v>45027</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,13 +8107,13 @@
         <v>143096</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="H33" s="7">
         <v>102</v>
@@ -8104,13 +8122,13 @@
         <v>106767</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -8119,13 +8137,13 @@
         <v>249863</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,13 +8158,13 @@
         <v>90221</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="H34" s="7">
         <v>60</v>
@@ -8158,10 +8176,10 @@
         <v>27</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>554</v>
+        <v>665</v>
       </c>
       <c r="M34" s="7">
         <v>146</v>
@@ -8170,13 +8188,13 @@
         <v>154744</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>661</v>
+        <v>244</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,13 +8262,13 @@
         <v>176731</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="H36" s="7">
         <v>123</v>
@@ -8259,13 +8277,13 @@
         <v>123284</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="M36" s="7">
         <v>281</v>
@@ -8274,13 +8292,13 @@
         <v>300016</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8295,13 +8313,13 @@
         <v>569906</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="H37" s="7">
         <v>414</v>
@@ -8310,13 +8328,13 @@
         <v>425171</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="M37" s="7">
         <v>949</v>
@@ -8325,13 +8343,13 @@
         <v>995078</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,13 +8364,13 @@
         <v>416570</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>391</v>
+        <v>687</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="H38" s="7">
         <v>335</v>
@@ -8361,13 +8379,13 @@
         <v>352039</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>15</v>
+        <v>689</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="M38" s="7">
         <v>723</v>
@@ -8376,13 +8394,13 @@
         <v>768610</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8438,7 +8456,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ECD7393-97B7-45F1-A181-542E9DB5324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28949A42-C03C-4974-AF91-58F463981883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D41679F-40E7-499F-94EF-4FFEFE21FD3E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83EC7EEC-AE8F-43DE-B219-C8014A5EC672}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="687">
   <si>
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2007 (Tasa respuesta: 33,65%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>50,87%</t>
   </si>
   <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
   </si>
   <si>
     <t>52,66%</t>
   </si>
   <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
   </si>
   <si>
     <t>51,57%</t>
   </si>
   <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>28,61%</t>
   </si>
   <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
   </si>
   <si>
     <t>38,57%</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
   </si>
   <si>
     <t>32,49%</t>
   </si>
   <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -136,28 +136,28 @@
     <t>20,52%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,1960 +169,1936 @@
     <t>46,68%</t>
   </si>
   <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
     <t>39,93%</t>
   </si>
   <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
   </si>
   <si>
     <t>48,9%</t>
   </si>
   <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
   </si>
   <si>
     <t>24,84%</t>
   </si>
   <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
   </si>
   <si>
     <t>40,03%</t>
   </si>
   <si>
-    <t>44,21%</t>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
   </si>
   <si>
     <t>34,42%</t>
   </si>
   <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
+    <t>38,73%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
   </si>
   <si>
     <t>48,99%</t>
   </si>
   <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
   </si>
   <si>
     <t>47,22%</t>
   </si>
   <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
+    <t>50,44%</t>
   </si>
   <si>
     <t>48,22%</t>
   </si>
   <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
   </si>
   <si>
     <t>37,24%</t>
   </si>
   <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
 </sst>
 </file>
@@ -2534,7 +2510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69682AF6-231F-4EE4-A8AA-E99FB1710959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20B87DE-7271-4ABE-BE9A-48469ABA5ACE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2966,13 +2942,13 @@
         <v>48271</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -2981,13 +2957,13 @@
         <v>31431</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -2996,13 +2972,13 @@
         <v>79702</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,7 +3034,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3070,13 +3046,13 @@
         <v>99443</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>69</v>
@@ -3085,13 +3061,13 @@
         <v>68814</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>167</v>
@@ -3100,13 +3076,13 @@
         <v>168257</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3097,13 @@
         <v>38531</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3136,13 +3112,13 @@
         <v>20077</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -3151,13 +3127,13 @@
         <v>58608</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3148,13 @@
         <v>9865</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3187,13 +3163,13 @@
         <v>5998</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3202,13 +3178,13 @@
         <v>15862</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,7 +3240,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3276,13 +3252,13 @@
         <v>107593</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -3291,13 +3267,13 @@
         <v>58861</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
@@ -3306,13 +3282,13 @@
         <v>166455</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3303,13 @@
         <v>34924</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -3342,13 +3318,13 @@
         <v>28032</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -3357,13 +3333,13 @@
         <v>62956</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3354,13 @@
         <v>27970</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3393,13 +3369,13 @@
         <v>18326</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -3408,13 +3384,13 @@
         <v>46296</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,7 +3446,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3482,13 +3458,13 @@
         <v>15007</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3497,13 +3473,13 @@
         <v>8674</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -3512,13 +3488,13 @@
         <v>23681</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3509,13 @@
         <v>54039</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>38</v>
@@ -3548,13 +3524,13 @@
         <v>39594</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>92</v>
@@ -3563,13 +3539,13 @@
         <v>93633</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,10 +3560,10 @@
         <v>15283</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>145</v>
@@ -3745,7 +3721,7 @@
         <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -3754,13 +3730,13 @@
         <v>12021</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -3769,13 +3745,13 @@
         <v>37821</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3766,13 @@
         <v>11822</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -3805,13 +3781,13 @@
         <v>11893</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -3820,13 +3796,13 @@
         <v>23715</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,7 +3858,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3894,13 +3870,13 @@
         <v>106002</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -3909,13 +3885,13 @@
         <v>66783</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>174</v>
@@ -3924,13 +3900,13 @@
         <v>172785</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3921,13 @@
         <v>77679</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -4017,7 +3993,7 @@
         <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>85</v>
@@ -4026,13 +4002,13 @@
         <v>88796</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,7 +4064,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4100,13 +4076,13 @@
         <v>37090</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -4115,13 +4091,13 @@
         <v>19005</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -4130,13 +4106,13 @@
         <v>56094</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>216</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4127,13 @@
         <v>193976</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H33" s="7">
         <v>119</v>
@@ -4166,13 +4142,13 @@
         <v>122946</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M33" s="7">
         <v>306</v>
@@ -4181,13 +4157,13 @@
         <v>316922</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4178,13 @@
         <v>84520</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>42</v>
@@ -4217,13 +4193,13 @@
         <v>44417</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M34" s="7">
         <v>124</v>
@@ -4232,13 +4208,13 @@
         <v>128938</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4282,13 @@
         <v>599880</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H36" s="7">
         <v>345</v>
@@ -4321,13 +4297,13 @@
         <v>348212</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M36" s="7">
         <v>940</v>
@@ -4336,13 +4312,13 @@
         <v>948092</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4333,13 @@
         <v>511219</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H37" s="7">
         <v>337</v>
@@ -4372,13 +4348,13 @@
         <v>346931</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M37" s="7">
         <v>827</v>
@@ -4387,13 +4363,13 @@
         <v>858150</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4384,13 @@
         <v>272291</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H38" s="7">
         <v>162</v>
@@ -4423,13 +4399,13 @@
         <v>167159</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M38" s="7">
         <v>424</v>
@@ -4438,13 +4414,13 @@
         <v>439450</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,7 +4476,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4524,7 +4500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D67836-15E5-4E59-99C0-F6D1D30EBAD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A41B5B-A7E6-44C4-8FF1-BE1A18C3392C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4541,7 +4517,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4646,39 +4622,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,39 +4667,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,39 +4712,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,39 +4757,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4806,13 @@
         <v>23899</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4845,13 +4821,13 @@
         <v>21209</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -4860,13 +4836,13 @@
         <v>45108</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4857,13 @@
         <v>81000</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -4896,13 +4872,13 @@
         <v>61940</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M9" s="7">
         <v>133</v>
@@ -4911,13 +4887,13 @@
         <v>142941</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4908,13 @@
         <v>101195</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4947,13 +4923,13 @@
         <v>68069</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>150</v>
@@ -4962,13 +4938,13 @@
         <v>169264</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,7 +5000,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5036,13 +5012,13 @@
         <v>35561</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5051,13 +5027,13 @@
         <v>8080</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -5066,13 +5042,13 @@
         <v>43641</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5063,13 @@
         <v>55297</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5102,13 +5078,13 @@
         <v>51961</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -5117,13 +5093,13 @@
         <v>107258</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5114,13 @@
         <v>36179</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -5153,13 +5129,13 @@
         <v>26438</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -5168,13 +5144,13 @@
         <v>62617</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,7 +5206,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5377,10 +5353,10 @@
         <v>339</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,7 +5412,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5448,13 +5424,13 @@
         <v>9132</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5463,13 +5439,13 @@
         <v>5013</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -5478,13 +5454,13 @@
         <v>14146</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5475,13 @@
         <v>47335</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -5514,13 +5490,13 @@
         <v>39235</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M21" s="7">
         <v>84</v>
@@ -5529,13 +5505,13 @@
         <v>86570</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5526,13 @@
         <v>33900</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -5565,13 +5541,13 @@
         <v>21191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -5580,13 +5556,13 @@
         <v>55091</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5630,13 @@
         <v>16550</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5669,13 +5645,13 @@
         <v>5605</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -5684,13 +5660,13 @@
         <v>22154</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>376</v>
+        <v>265</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5681,13 @@
         <v>37995</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -5720,13 +5696,13 @@
         <v>41349</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -5735,13 +5711,13 @@
         <v>79344</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5732,13 @@
         <v>29195</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -5771,13 +5747,13 @@
         <v>19926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M26" s="7">
         <v>47</v>
@@ -5786,13 +5762,13 @@
         <v>49121</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>395</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,7 +5824,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5860,13 +5836,13 @@
         <v>59399</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -5875,13 +5851,13 @@
         <v>35636</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M28" s="7">
         <v>90</v>
@@ -5890,13 +5866,13 @@
         <v>95036</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +5887,13 @@
         <v>137003</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>47</v>
+        <v>399</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H29" s="7">
         <v>88</v>
@@ -5926,13 +5902,13 @@
         <v>96388</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M29" s="7">
         <v>218</v>
@@ -5941,13 +5917,13 @@
         <v>233391</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5938,13 @@
         <v>83791</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H30" s="7">
         <v>57</v>
@@ -5977,13 +5953,13 @@
         <v>62525</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M30" s="7">
         <v>133</v>
@@ -5992,13 +5968,13 @@
         <v>146317</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,7 +6030,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6066,13 +6042,13 @@
         <v>38337</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>423</v>
+        <v>345</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -6081,13 +6057,13 @@
         <v>27745</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M32" s="7">
         <v>61</v>
@@ -6096,13 +6072,13 @@
         <v>66082</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>429</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6093,13 @@
         <v>161584</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H33" s="7">
         <v>108</v>
@@ -6132,13 +6108,13 @@
         <v>118854</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M33" s="7">
         <v>260</v>
@@ -6147,13 +6123,13 @@
         <v>280439</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,13 +6144,13 @@
         <v>91412</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -6183,13 +6159,13 @@
         <v>61268</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M34" s="7">
         <v>137</v>
@@ -6198,13 +6174,13 @@
         <v>152679</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6272,13 +6248,13 @@
         <v>235777</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>450</v>
+        <v>315</v>
       </c>
       <c r="H36" s="7">
         <v>128</v>
@@ -6287,13 +6263,13 @@
         <v>138279</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="M36" s="7">
         <v>353</v>
@@ -6302,13 +6278,13 @@
         <v>374056</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,13 +6299,13 @@
         <v>624540</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>312</v>
+        <v>451</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H37" s="7">
         <v>441</v>
@@ -6338,13 +6314,13 @@
         <v>475773</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>362</v>
+        <v>453</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M37" s="7">
         <v>1032</v>
@@ -6353,13 +6329,13 @@
         <v>1100313</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,13 +6350,13 @@
         <v>484949</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>250</v>
+        <v>459</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H38" s="7">
         <v>327</v>
@@ -6389,13 +6365,13 @@
         <v>360295</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="M38" s="7">
         <v>772</v>
@@ -6404,13 +6380,13 @@
         <v>845243</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,7 +6428,7 @@
         <v>2157</v>
       </c>
       <c r="N39" s="7">
-        <v>2319613</v>
+        <v>2319612</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -6466,7 +6442,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -6490,7 +6466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B09885-44C8-48C5-A409-773387F1CA75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDC3F49-3B0E-454E-BAB8-94D43767E6C9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6507,7 +6483,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6614,13 +6590,13 @@
         <v>22209</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6629,13 +6605,13 @@
         <v>8108</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>64</v>
+        <v>474</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6644,13 +6620,13 @@
         <v>30317</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6641,13 @@
         <v>32875</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>39</v>
+        <v>478</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -6680,13 +6656,13 @@
         <v>17421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>482</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -6695,13 +6671,13 @@
         <v>50297</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6692,13 @@
         <v>49406</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="H6" s="7">
         <v>47</v>
@@ -6731,13 +6707,13 @@
         <v>48185</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="M6" s="7">
         <v>92</v>
@@ -6746,13 +6722,13 @@
         <v>97590</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6796,13 @@
         <v>11140</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6835,13 +6811,13 @@
         <v>7035</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -6850,13 +6826,13 @@
         <v>18175</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,13 +6847,13 @@
         <v>151641</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -6886,13 +6862,13 @@
         <v>91582</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="M9" s="7">
         <v>229</v>
@@ -6901,13 +6877,13 @@
         <v>243223</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,13 +6898,13 @@
         <v>45243</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>516</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -6937,13 +6913,13 @@
         <v>41152</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -6952,13 +6928,13 @@
         <v>86395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,7 +6990,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7026,13 +7002,13 @@
         <v>3066</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -7041,13 +7017,13 @@
         <v>3834</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -7056,13 +7032,13 @@
         <v>6900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>529</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7053,13 @@
         <v>48782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -7092,13 +7068,13 @@
         <v>39010</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -7107,13 +7083,13 @@
         <v>87791</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7104,13 @@
         <v>44484</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -7143,13 +7119,13 @@
         <v>38559</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -7158,13 +7134,13 @@
         <v>83043</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,7 +7196,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7232,13 +7208,13 @@
         <v>29046</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -7247,13 +7223,13 @@
         <v>10151</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>551</v>
+        <v>498</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>423</v>
+        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -7262,13 +7238,13 @@
         <v>39197</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7259,13 @@
         <v>51504</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -7298,13 +7274,13 @@
         <v>45104</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -7313,13 +7289,13 @@
         <v>96608</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7310,13 @@
         <v>58737</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -7349,13 +7325,13 @@
         <v>51556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -7364,13 +7340,13 @@
         <v>110292</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>570</v>
+        <v>467</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,7 +7402,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7438,13 +7414,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7453,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7468,13 +7444,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7465,13 @@
         <v>48542</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -7504,13 +7480,13 @@
         <v>24478</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="M21" s="7">
         <v>73</v>
@@ -7519,13 +7495,13 @@
         <v>73020</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7516,13 @@
         <v>30561</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>193</v>
+        <v>581</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -7555,13 +7531,13 @@
         <v>31322</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -7570,13 +7546,13 @@
         <v>61883</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7620,13 @@
         <v>15632</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>476</v>
+        <v>590</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7659,13 +7635,13 @@
         <v>5674</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -7674,13 +7650,13 @@
         <v>21305</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7671,13 @@
         <v>51087</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -7710,13 +7686,13 @@
         <v>56821</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -7725,13 +7701,13 @@
         <v>107907</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7746,13 +7722,13 @@
         <v>21512</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -7761,13 +7737,13 @@
         <v>9545</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>612</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -7776,13 +7752,13 @@
         <v>31057</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,7 +7814,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7850,13 +7826,13 @@
         <v>77941</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -7865,13 +7841,13 @@
         <v>61154</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>516</v>
+        <v>620</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M28" s="7">
         <v>127</v>
@@ -7880,13 +7856,13 @@
         <v>139095</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>622</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7877,13 @@
         <v>42380</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -7916,13 +7892,13 @@
         <v>43988</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="M29" s="7">
         <v>78</v>
@@ -7931,13 +7907,13 @@
         <v>86368</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,13 +7928,13 @@
         <v>76408</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -7967,13 +7943,13 @@
         <v>67198</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>640</v>
       </c>
       <c r="M30" s="7">
         <v>129</v>
@@ -7982,13 +7958,13 @@
         <v>143605</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,7 +8020,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8056,13 +8032,13 @@
         <v>17697</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>644</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>645</v>
+        <v>132</v>
       </c>
       <c r="H32" s="7">
         <v>27</v>
@@ -8071,13 +8047,13 @@
         <v>27330</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>646</v>
+        <v>470</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>647</v>
+        <v>265</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="M32" s="7">
         <v>43</v>
@@ -8086,13 +8062,13 @@
         <v>45027</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8083,13 @@
         <v>143096</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="H33" s="7">
         <v>102</v>
@@ -8122,13 +8098,13 @@
         <v>106767</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -8137,13 +8113,13 @@
         <v>249863</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8134,13 @@
         <v>90221</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="H34" s="7">
         <v>60</v>
@@ -8176,10 +8152,10 @@
         <v>27</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>665</v>
+        <v>555</v>
       </c>
       <c r="M34" s="7">
         <v>146</v>
@@ -8188,13 +8164,13 @@
         <v>154744</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>661</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>666</v>
+        <v>196</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8238,13 @@
         <v>176731</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H36" s="7">
         <v>123</v>
@@ -8277,13 +8253,13 @@
         <v>123284</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="M36" s="7">
         <v>281</v>
@@ -8292,13 +8268,13 @@
         <v>300016</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8289,13 @@
         <v>569906</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H37" s="7">
         <v>414</v>
@@ -8328,13 +8304,13 @@
         <v>425171</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>681</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="M37" s="7">
         <v>949</v>
@@ -8343,13 +8319,13 @@
         <v>995078</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8340,13 @@
         <v>416570</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>687</v>
+        <v>389</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="H38" s="7">
         <v>335</v>
@@ -8379,13 +8355,13 @@
         <v>352039</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>689</v>
+        <v>181</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="M38" s="7">
         <v>723</v>
@@ -8394,13 +8370,13 @@
         <v>768610</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8456,7 +8432,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28949A42-C03C-4974-AF91-58F463981883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E3DFB32-7DFC-4562-B514-147B7F3FC618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83EC7EEC-AE8F-43DE-B219-C8014A5EC672}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6CA51D37-0116-463E-967D-FAAF89119D83}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="706">
   <si>
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2007 (Tasa respuesta: 33,65%)</t>
   </si>
@@ -820,7 +820,79 @@
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
   </si>
   <si>
     <t>11,6%</t>
@@ -985,393 +1057,387 @@
     <t>35,11%</t>
   </si>
   <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
     <t>14,19%</t>
   </si>
   <si>
@@ -1429,9 +1495,6 @@
     <t>36,98%</t>
   </si>
   <si>
-    <t>34,04%</t>
-  </si>
-  <si>
     <t>40,29%</t>
   </si>
   <si>
@@ -1960,16 +2023,10 @@
     <t>46,31%</t>
   </si>
   <si>
-    <t>33,83%</t>
-  </si>
-  <si>
     <t>44,8%</t>
   </si>
   <si>
     <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
   </si>
   <si>
     <t>19,43%</t>
@@ -2510,7 +2567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20B87DE-7271-4ABE-BE9A-48469ABA5ACE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD201C36-0E7E-431D-9957-BC5D4BA3879F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4205,7 +4262,7 @@
         <v>124</v>
       </c>
       <c r="N34" s="7">
-        <v>128938</v>
+        <v>128937</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>229</v>
@@ -4256,7 +4313,7 @@
         <v>484</v>
       </c>
       <c r="N35" s="7">
-        <v>501954</v>
+        <v>501953</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -4330,7 +4387,7 @@
         <v>490</v>
       </c>
       <c r="D37" s="7">
-        <v>511219</v>
+        <v>511218</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>240</v>
@@ -4432,7 +4489,7 @@
         <v>1347</v>
       </c>
       <c r="D39" s="7">
-        <v>1383390</v>
+        <v>1383389</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -4500,7 +4557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A41B5B-A7E6-44C4-8FF1-BE1A18C3392C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A34A2A-C640-4BE8-99E5-0B1A075EB8BD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4618,43 +4675,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11627</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>260</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9278</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N4" s="7">
+        <v>20905</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,43 +4726,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="D5" s="7">
+        <v>50810</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I5" s="7">
+        <v>28501</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="N5" s="7">
+        <v>79311</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,43 +4777,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D6" s="7">
+        <v>74043</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>260</v>
+        <v>138</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="I6" s="7">
+        <v>60152</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="N6" s="7">
+        <v>134195</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,43 +4828,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="D7" s="7">
+        <v>136480</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="I7" s="7">
+        <v>97931</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="N7" s="7">
+        <v>234411</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4887,13 @@
         <v>23899</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4821,13 +4902,13 @@
         <v>21209</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -4836,13 +4917,13 @@
         <v>45108</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4938,13 @@
         <v>81000</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -4872,13 +4953,13 @@
         <v>61940</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="M9" s="7">
         <v>133</v>
@@ -4887,13 +4968,13 @@
         <v>142941</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4989,13 @@
         <v>101195</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4923,13 +5004,13 @@
         <v>68069</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>150</v>
@@ -4938,13 +5019,13 @@
         <v>169264</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5093,13 @@
         <v>35561</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5027,13 +5108,13 @@
         <v>8080</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -5042,13 +5123,13 @@
         <v>43641</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5144,13 @@
         <v>55297</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5078,13 +5159,13 @@
         <v>51961</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -5093,13 +5174,13 @@
         <v>107258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5195,13 @@
         <v>36179</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -5129,13 +5210,13 @@
         <v>26438</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -5144,13 +5225,13 @@
         <v>62617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,49 +5293,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>52899</v>
+        <v>41272</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I16" s="7">
-        <v>34991</v>
+        <v>25713</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="N16" s="7">
-        <v>87890</v>
+        <v>66985</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,49 +5344,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="D17" s="7">
-        <v>104325</v>
+        <v>53515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I17" s="7">
-        <v>66045</v>
+        <v>37544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="N17" s="7">
-        <v>170370</v>
+        <v>91059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,49 +5395,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>109275</v>
+        <v>35232</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H18" s="7">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="I18" s="7">
-        <v>100878</v>
+        <v>40726</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="M18" s="7">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="N18" s="7">
-        <v>210153</v>
+        <v>75958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>238</v>
+        <v>362</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,10 +5446,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="D19" s="7">
-        <v>266499</v>
+        <v>130019</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5380,10 +5461,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="I19" s="7">
-        <v>201914</v>
+        <v>103984</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5395,10 +5476,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>432</v>
+        <v>217</v>
       </c>
       <c r="N19" s="7">
-        <v>468413</v>
+        <v>234003</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5424,10 +5505,10 @@
         <v>9132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>255</v>
@@ -5439,13 +5520,13 @@
         <v>5013</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -5454,13 +5535,13 @@
         <v>14146</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5556,13 @@
         <v>47335</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -5490,13 +5571,13 @@
         <v>39235</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="M21" s="7">
         <v>84</v>
@@ -5505,13 +5586,13 @@
         <v>86570</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5607,13 @@
         <v>33900</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -5544,10 +5625,10 @@
         <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -5556,13 +5637,13 @@
         <v>55091</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5711,13 @@
         <v>16550</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>366</v>
+        <v>273</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5645,13 +5726,13 @@
         <v>5605</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -5660,13 +5741,13 @@
         <v>22154</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5762,13 @@
         <v>37995</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -5696,13 +5777,13 @@
         <v>41349</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -5711,13 +5792,13 @@
         <v>79344</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5813,13 @@
         <v>29195</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -5747,13 +5828,13 @@
         <v>19926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>47</v>
@@ -5762,13 +5843,13 @@
         <v>49121</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5917,13 @@
         <v>59399</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>253</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -5851,13 +5932,13 @@
         <v>35636</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="M28" s="7">
         <v>90</v>
@@ -5866,13 +5947,13 @@
         <v>95036</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5968,13 @@
         <v>137003</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="H29" s="7">
         <v>88</v>
@@ -5902,13 +5983,13 @@
         <v>96388</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="M29" s="7">
         <v>218</v>
@@ -5917,13 +5998,13 @@
         <v>233391</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +6019,13 @@
         <v>83791</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="H30" s="7">
         <v>57</v>
@@ -5953,13 +6034,13 @@
         <v>62525</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="M30" s="7">
         <v>133</v>
@@ -5968,13 +6049,13 @@
         <v>146317</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6123,13 @@
         <v>38337</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>418</v>
+        <v>263</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -6057,13 +6138,13 @@
         <v>27745</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="M32" s="7">
         <v>61</v>
@@ -6072,10 +6153,10 @@
         <v>66082</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>199</v>
@@ -6093,13 +6174,13 @@
         <v>161584</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="H33" s="7">
         <v>108</v>
@@ -6108,13 +6189,13 @@
         <v>118854</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="M33" s="7">
         <v>260</v>
@@ -6123,13 +6204,13 @@
         <v>280439</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6225,13 @@
         <v>91412</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -6159,13 +6240,13 @@
         <v>61268</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="M34" s="7">
         <v>137</v>
@@ -6174,13 +6255,13 @@
         <v>152679</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,13 +6329,13 @@
         <v>235777</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>315</v>
+        <v>465</v>
       </c>
       <c r="H36" s="7">
         <v>128</v>
@@ -6263,13 +6344,13 @@
         <v>138279</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="M36" s="7">
         <v>353</v>
@@ -6278,13 +6359,13 @@
         <v>374056</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6380,13 @@
         <v>624540</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="H37" s="7">
         <v>441</v>
@@ -6314,13 +6395,13 @@
         <v>475773</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="M37" s="7">
         <v>1032</v>
@@ -6329,13 +6410,13 @@
         <v>1100313</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6431,13 @@
         <v>484949</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="H38" s="7">
         <v>327</v>
@@ -6365,13 +6446,13 @@
         <v>360295</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="M38" s="7">
         <v>772</v>
@@ -6380,13 +6461,13 @@
         <v>845243</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,7 +6509,7 @@
         <v>2157</v>
       </c>
       <c r="N39" s="7">
-        <v>2319612</v>
+        <v>2319613</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -6466,7 +6547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDC3F49-3B0E-454E-BAB8-94D43767E6C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D59E54-48D0-4FC5-A3C6-3D5CDA1B1F46}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6483,7 +6564,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6590,13 +6671,13 @@
         <v>22209</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6605,13 +6686,13 @@
         <v>8108</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6620,13 +6701,13 @@
         <v>30317</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6722,13 @@
         <v>32875</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -6656,13 +6737,13 @@
         <v>17421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -6671,13 +6752,13 @@
         <v>50297</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,13 +6773,13 @@
         <v>49406</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="H6" s="7">
         <v>47</v>
@@ -6707,13 +6788,13 @@
         <v>48185</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="M6" s="7">
         <v>92</v>
@@ -6722,13 +6803,13 @@
         <v>97590</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6877,13 @@
         <v>11140</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6811,13 +6892,13 @@
         <v>7035</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -6826,13 +6907,13 @@
         <v>18175</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6928,13 @@
         <v>151641</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -6862,13 +6943,13 @@
         <v>91582</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="M9" s="7">
         <v>229</v>
@@ -6877,13 +6958,13 @@
         <v>243223</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,13 +6979,13 @@
         <v>45243</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -6913,13 +6994,13 @@
         <v>41152</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -6928,13 +7009,13 @@
         <v>86395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7002,13 +7083,13 @@
         <v>3066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -7017,13 +7098,13 @@
         <v>3834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -7032,13 +7113,13 @@
         <v>6900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7134,13 @@
         <v>48782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -7068,13 +7149,13 @@
         <v>39010</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -7083,13 +7164,13 @@
         <v>87791</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,13 +7185,13 @@
         <v>44484</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -7119,13 +7200,13 @@
         <v>38559</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -7134,13 +7215,13 @@
         <v>83043</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,10 +7292,10 @@
         <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -7223,13 +7304,13 @@
         <v>10151</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -7238,13 +7319,13 @@
         <v>39197</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7259,13 +7340,13 @@
         <v>51504</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -7274,13 +7355,13 @@
         <v>45104</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -7289,13 +7370,13 @@
         <v>96608</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7391,13 @@
         <v>58737</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -7325,13 +7406,13 @@
         <v>51556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -7340,13 +7421,13 @@
         <v>110292</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,13 +7495,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7429,13 +7510,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7444,13 +7525,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7546,13 @@
         <v>48542</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -7480,13 +7561,13 @@
         <v>24478</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="M21" s="7">
         <v>73</v>
@@ -7495,13 +7576,13 @@
         <v>73020</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7597,13 @@
         <v>30561</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -7531,13 +7612,13 @@
         <v>31322</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -7546,13 +7627,13 @@
         <v>61883</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7701,13 @@
         <v>15632</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7635,13 +7716,13 @@
         <v>5674</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -7650,13 +7731,13 @@
         <v>21305</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7752,13 @@
         <v>51087</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -7686,13 +7767,13 @@
         <v>56821</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -7701,13 +7782,13 @@
         <v>107907</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,13 +7803,13 @@
         <v>21512</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>607</v>
+        <v>628</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -7737,13 +7818,13 @@
         <v>9545</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>611</v>
+        <v>632</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -7752,13 +7833,13 @@
         <v>31057</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7907,13 @@
         <v>77941</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>616</v>
+        <v>637</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -7841,13 +7922,13 @@
         <v>61154</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="M28" s="7">
         <v>127</v>
@@ -7856,13 +7937,13 @@
         <v>139095</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,13 +7958,13 @@
         <v>42380</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -7892,13 +7973,13 @@
         <v>43988</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="M29" s="7">
         <v>78</v>
@@ -7907,13 +7988,13 @@
         <v>86368</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>632</v>
+        <v>653</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>633</v>
+        <v>654</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7928,13 +8009,13 @@
         <v>76408</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -7943,13 +8024,13 @@
         <v>67198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>637</v>
+        <v>658</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>638</v>
+        <v>659</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="M30" s="7">
         <v>129</v>
@@ -7961,10 +8042,10 @@
         <v>187</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>640</v>
+        <v>275</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,10 +8113,10 @@
         <v>17697</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>643</v>
+        <v>261</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>132</v>
@@ -8047,13 +8128,13 @@
         <v>27330</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="M32" s="7">
         <v>43</v>
@@ -8062,13 +8143,13 @@
         <v>45027</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8164,13 @@
         <v>143096</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="H33" s="7">
         <v>102</v>
@@ -8098,13 +8179,13 @@
         <v>106767</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -8113,13 +8194,13 @@
         <v>249863</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,13 +8215,13 @@
         <v>90221</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="H34" s="7">
         <v>60</v>
@@ -8152,10 +8233,10 @@
         <v>27</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="M34" s="7">
         <v>146</v>
@@ -8164,13 +8245,13 @@
         <v>154744</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>196</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,13 +8319,13 @@
         <v>176731</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="H36" s="7">
         <v>123</v>
@@ -8253,13 +8334,13 @@
         <v>123284</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="M36" s="7">
         <v>281</v>
@@ -8268,13 +8349,13 @@
         <v>300016</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,13 +8370,13 @@
         <v>569906</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="H37" s="7">
         <v>414</v>
@@ -8304,13 +8385,13 @@
         <v>425171</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="M37" s="7">
         <v>949</v>
@@ -8319,13 +8400,13 @@
         <v>995078</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,13 +8421,13 @@
         <v>416570</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="H38" s="7">
         <v>335</v>
@@ -8358,10 +8439,10 @@
         <v>181</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="M38" s="7">
         <v>723</v>
@@ -8370,13 +8451,13 @@
         <v>768610</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8388,7 +8469,7 @@
         <v>1081</v>
       </c>
       <c r="D39" s="7">
-        <v>1163208</v>
+        <v>1163207</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
